--- a/biology/Zoologie/Euploea_tulliolus/Euploea_tulliolus.xlsx
+++ b/biology/Zoologie/Euploea_tulliolus/Euploea_tulliolus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euploea tulliolus est un insecte lépidoptère  de la famille des Nymphalidae, de la sous-famille des Danainae et du genre  Euploea.
 </t>
@@ -511,18 +523,90 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Euploea tulliolus (Fabricius, 1793)
-Synonymes :Euploea dehaani ; Fruhstorfer, 1910[1].
-Noms vernaculaires
-Euploea tulliolus se nomme en anglais Dwarf Crow, Eastern Brown Crow  et Purple Crow pour ses reflets violets[1],[2].
-Sous-espèces
-Euploea tulliolus tulliolus en Nouvelle Calédonie
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euploea tulliolus (Fabricius, 1793)
+Synonymes :Euploea dehaani ; Fruhstorfer, 1910.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Euploea_tulliolus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euploea_tulliolus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euploea tulliolus se nomme en anglais Dwarf Crow, Eastern Brown Crow  et Purple Crow pour ses reflets violets,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Euploea_tulliolus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euploea_tulliolus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Euploea tulliolus tulliolus en Nouvelle Calédonie
 Euploea tulliolus adyte (Boisduval, 1859) en Nouvelle-Calédonie à Grande Terre et aux îles Loyauté.
 Euploea tulliolus aristotelis (Moore, 1883) à Bornéo.
 Euploea tulliolus baweana (Fruhstorfer, 1905)
-Euploea tulliolus dehaani   Butler,1866; au Laos, Vietnam, Sud-Est de la Thaïlande et Sud de la Chine[3].
+Euploea tulliolus dehaani   Butler,1866; au Laos, Vietnam, Sud-Est de la Thaïlande et Sud de la Chine.
 Euploea tulliolus doryca (Butler, 1878)
 Euploea tulliolus dugdeonis (Grose-Smith, 1894)
 Euploea tulliolus eunus (de Nicéville, 1895) Nord-Est de Sumatra.
@@ -541,76 +625,9 @@
 Euploea tulliolus nocturna (Fruhstorfer, 1904)
 Euploea tulliolusoffaka (Fruhstorfer, 1904)
 Euploea tulliolus sambawana (Doherty)
-Euploea tulliolus saundersii (C. &amp; R. Felder, [1865]
+Euploea tulliolus saundersii (C. &amp; R. Felder, 
 Euploea tulliolus sumbana (Doherty, 1891)
-Euploea tulliolus wetterensis (Fruhstorfer, 1900)[1].</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Euploea_tulliolus</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Euploea_tulliolus</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un papillon marron foncé aux ailes et au corps ornementé de points blancs, d'une envergure de 56 à 60 mm plus petit que les autres Euploea[4]. Le dessus des ailes antérieures est bordé d'une ligne submarginale de taches  ovales blanches. Ces taches blanches sont plus ou moins importantes suivant les sous-espèces.
-Le revers est lui aussi marron avec aux ailes antérieures et aux ailes postérieures une ligne submarginale de points blancs doublée d'une ligne de taches blanches.
-Chenille
-L'œuf est blanc, la chenille noire marquée de jaune[5].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Euploea_tulliolus</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Euploea_tulliolus</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il vole toute l'année[6].
-Plantes hôtes
-Les plantes hôtes de sa chenille sont des Moraceae dont Trophis scandens, et Apocynaceae, Nerium oleander et à Taïwan des Ficus[1],[5].
-</t>
+Euploea tulliolus wetterensis (Fruhstorfer, 1900).</t>
         </is>
       </c>
     </row>
@@ -635,17 +652,230 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un papillon marron foncé aux ailes et au corps ornementé de points blancs, d'une envergure de 56 à 60 mm plus petit que les autres Euploea. Le dessus des ailes antérieures est bordé d'une ligne submarginale de taches  ovales blanches. Ces taches blanches sont plus ou moins importantes suivant les sous-espèces.
+Le revers est lui aussi marron avec aux ailes antérieures et aux ailes postérieures une ligne submarginale de points blancs doublée d'une ligne de taches blanches.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Euploea_tulliolus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euploea_tulliolus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'œuf est blanc, la chenille noire marquée de jaune.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Euploea_tulliolus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euploea_tulliolus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole toute l'année.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Euploea_tulliolus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euploea_tulliolus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Moraceae dont Trophis scandens, et Apocynaceae, Nerium oleander et à Taïwan des Ficus,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Euploea_tulliolus</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euploea_tulliolus</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euploea tulliolus est présent dans le Sud de l'Asie, à Taïwan, dans le Sud de la Chine, à Singapour, en Malaisie, en Indonésie, aux Philippines, et en Océanie, en Nouvelle-Guinée, aux Fidji, aux îles Salomon, en Australie et en Nouvelle-Calédonie[1]. 
-En Nouvelle-Calédonie, Euploea tulliolus tulliolus et Euploea tulliolus adyte sont présents à Grande Terre et aux îles Loyauté et Euploea tulliolus forsteri est aussi présent[7],[8],[9].
-Biotope
-Il réside en lisière de forêt[6].
-Protection
-Pas de statut de protection particulier.
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euploea tulliolus est présent dans le Sud de l'Asie, à Taïwan, dans le Sud de la Chine, à Singapour, en Malaisie, en Indonésie, aux Philippines, et en Océanie, en Nouvelle-Guinée, aux Fidji, aux îles Salomon, en Australie et en Nouvelle-Calédonie. 
+En Nouvelle-Calédonie, Euploea tulliolus tulliolus et Euploea tulliolus adyte sont présents à Grande Terre et aux îles Loyauté et Euploea tulliolus forsteri est aussi présent.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Euploea_tulliolus</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euploea_tulliolus</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside en lisière de forêt.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Euploea_tulliolus</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euploea_tulliolus</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
